--- a/examples/data/fedbatch_fedbatch1_all_batchdata_noisy.xlsx
+++ b/examples/data/fedbatch_fedbatch1_all_batchdata_noisy.xlsx
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0389469558094609</v>
+        <v>-0.03894691160816487</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001181377214730863</v>
+        <v>0.001181376608594687</v>
       </c>
       <c r="E2" t="n">
-        <v>13.10468734317238</v>
+        <v>13.10469244553638</v>
       </c>
       <c r="F2" t="n">
-        <v>0.997366327395759</v>
+        <v>0.9973663273957591</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04189270225995906</v>
+        <v>0.04189271786838571</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01585698399253559</v>
+        <v>0.0158569952742204</v>
       </c>
       <c r="E3" t="n">
-        <v>12.23998994759106</v>
+        <v>12.23998337316707</v>
       </c>
       <c r="F3" t="n">
-        <v>1.270281875368418</v>
+        <v>1.270281875368417</v>
       </c>
     </row>
     <row r="4">
@@ -511,13 +511,13 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00789640069613437</v>
+        <v>0.007923094263953101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02847868010681012</v>
+        <v>0.0284840373824107</v>
       </c>
       <c r="E4" t="n">
-        <v>11.47600442475814</v>
+        <v>11.47593175511552</v>
       </c>
       <c r="F4" t="n">
         <v>1.441334968174913</v>
@@ -531,13 +531,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2036812253443447</v>
+        <v>0.2035618704688633</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07821636962205765</v>
+        <v>0.07819245024522896</v>
       </c>
       <c r="E5" t="n">
-        <v>11.47601881966988</v>
+        <v>11.47627007482821</v>
       </c>
       <c r="F5" t="n">
         <v>1.686022840556844</v>
@@ -551,16 +551,16 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4676657146970563</v>
+        <v>0.4676169911959533</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1029869611997459</v>
+        <v>0.1029772182384992</v>
       </c>
       <c r="E6" t="n">
-        <v>10.66310906875053</v>
+        <v>10.66320428740444</v>
       </c>
       <c r="F6" t="n">
-        <v>1.885635634649809</v>
+        <v>1.885635634649808</v>
       </c>
     </row>
     <row r="7">
@@ -571,13 +571,13 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>1.027507411154518</v>
+        <v>1.026729988857598</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2164268613057858</v>
+        <v>0.2162713695030083</v>
       </c>
       <c r="E7" t="n">
-        <v>9.428061526625831</v>
+        <v>9.429615271186719</v>
       </c>
       <c r="F7" t="n">
         <v>2.146754785081508</v>
@@ -591,13 +591,13 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>1.907078371156547</v>
+        <v>1.907077876693615</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3655972969537346</v>
+        <v>0.3655972038261643</v>
       </c>
       <c r="E8" t="n">
-        <v>7.706217141968228</v>
+        <v>7.706222446099655</v>
       </c>
       <c r="F8" t="n">
         <v>2.368655658388005</v>
@@ -611,13 +611,13 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>3.803260341808834</v>
+        <v>3.803429469152838</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7312822674522655</v>
+        <v>0.7313161076372882</v>
       </c>
       <c r="E9" t="n">
-        <v>4.060020570706134</v>
+        <v>4.059683579748518</v>
       </c>
       <c r="F9" t="n">
         <v>2.437240264897949</v>
@@ -631,13 +631,13 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>5.330658066478137</v>
+        <v>5.33077303117223</v>
       </c>
       <c r="D10" t="n">
-        <v>1.12351650928681</v>
+        <v>1.12353947029946</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2995259553699126</v>
+        <v>0.2992971300152706</v>
       </c>
       <c r="F10" t="n">
         <v>2.842235943099494</v>
@@ -651,16 +651,16 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>5.519423350176912</v>
+        <v>5.519428861899066</v>
       </c>
       <c r="D11" t="n">
-        <v>1.080619662560022</v>
+        <v>1.080620775618097</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2603974795073779</v>
+        <v>0.2603897733005219</v>
       </c>
       <c r="F11" t="n">
-        <v>2.864531383401174</v>
+        <v>2.864531383401171</v>
       </c>
     </row>
     <row r="12">
@@ -671,16 +671,16 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>5.508839032126716</v>
+        <v>5.508790381417733</v>
       </c>
       <c r="D12" t="n">
-        <v>1.085197261873892</v>
+        <v>1.085187539176868</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1655456703922613</v>
+        <v>0.1656446026383964</v>
       </c>
       <c r="F12" t="n">
-        <v>3.136754898773865</v>
+        <v>3.136754898773862</v>
       </c>
     </row>
     <row r="13">
@@ -691,16 +691,16 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>5.309806068837143</v>
+        <v>5.309832585040168</v>
       </c>
       <c r="D13" t="n">
-        <v>1.062849985308019</v>
+        <v>1.062855284202857</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2864358968084452</v>
+        <v>0.2863876373312636</v>
       </c>
       <c r="F13" t="n">
-        <v>3.48572482746527</v>
+        <v>3.485724827465269</v>
       </c>
     </row>
     <row r="14">
@@ -711,16 +711,16 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>5.239385073483645</v>
+        <v>5.239323079294235</v>
       </c>
       <c r="D14" t="n">
-        <v>1.078483405047866</v>
+        <v>1.078470985196238</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0414772819178954</v>
+        <v>0.04160192071054486</v>
       </c>
       <c r="F14" t="n">
-        <v>3.562482143302803</v>
+        <v>3.5624821433028</v>
       </c>
     </row>
     <row r="15">
@@ -731,16 +731,16 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>5.404892175773383</v>
+        <v>5.404916469581448</v>
       </c>
       <c r="D15" t="n">
-        <v>1.046531438165528</v>
+        <v>1.046536309992986</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1470815615548106</v>
+        <v>-0.1471329255591913</v>
       </c>
       <c r="F15" t="n">
-        <v>3.92308402774718</v>
+        <v>3.923084027747178</v>
       </c>
     </row>
     <row r="16">
@@ -751,16 +751,16 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>5.434263080700099</v>
+        <v>5.43422201344033</v>
       </c>
       <c r="D16" t="n">
-        <v>1.076070527002633</v>
+        <v>1.076062314329155</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3901344483052712</v>
+        <v>-0.3900594930673589</v>
       </c>
       <c r="F16" t="n">
-        <v>3.998439824079675</v>
+        <v>3.998439824079672</v>
       </c>
     </row>
     <row r="17">
@@ -771,16 +771,16 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>5.320976628980659</v>
+        <v>5.320994240824483</v>
       </c>
       <c r="D17" t="n">
-        <v>1.095372394761178</v>
+        <v>1.095375895265786</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4293937241726747</v>
+        <v>0.4293672218661578</v>
       </c>
       <c r="F17" t="n">
-        <v>4.316501546213455</v>
+        <v>4.316501546213451</v>
       </c>
     </row>
     <row r="18">
@@ -791,16 +791,16 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>5.33849551177387</v>
+        <v>5.338474167716835</v>
       </c>
       <c r="D18" t="n">
-        <v>1.035349484126959</v>
+        <v>1.035345226048734</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003433924763528162</v>
+        <v>0.003477358230909201</v>
       </c>
       <c r="F18" t="n">
-        <v>4.505073724971358</v>
+        <v>4.505073724971357</v>
       </c>
     </row>
     <row r="19">
@@ -811,16 +811,16 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>5.39256211578517</v>
+        <v>5.392570555819807</v>
       </c>
       <c r="D19" t="n">
-        <v>1.068514406526618</v>
+        <v>1.068516094169311</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1086320070837446</v>
+        <v>0.108617920072374</v>
       </c>
       <c r="F19" t="n">
-        <v>4.61204500827584</v>
+        <v>4.612045008275836</v>
       </c>
     </row>
     <row r="20">
@@ -831,16 +831,16 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>5.261955417482607</v>
+        <v>5.261947713374816</v>
       </c>
       <c r="D20" t="n">
-        <v>1.020191597584086</v>
+        <v>1.020190066779958</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002583044445682151</v>
+        <v>0.002599450383159195</v>
       </c>
       <c r="F20" t="n">
-        <v>4.871100799269967</v>
+        <v>4.871100799269965</v>
       </c>
     </row>
     <row r="21">
@@ -851,13 +851,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>5.287597291533934</v>
+        <v>5.28758212566057</v>
       </c>
       <c r="D21" t="n">
-        <v>1.043551542095059</v>
+        <v>1.043548509832217</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3199453282480081</v>
+        <v>0.3199827222185719</v>
       </c>
       <c r="F21" t="n">
         <v>5.220057609246691</v>
@@ -917,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05205489462930855</v>
+        <v>-0.05205633940472467</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.005580040099752702</v>
+        <v>-0.00558011203545254</v>
       </c>
       <c r="E2" t="n">
-        <v>7.857107874399887</v>
+        <v>7.857107609526785</v>
       </c>
       <c r="F2" t="n">
         <v>0.8251700886277139</v>
@@ -937,16 +937,16 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.158182053686289</v>
+        <v>0.1581870584233485</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.006502044427613672</v>
+        <v>-0.006501211426354462</v>
       </c>
       <c r="E3" t="n">
-        <v>8.141190785000131</v>
+        <v>8.141216808412597</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9977407258332698</v>
+        <v>0.9977407258332694</v>
       </c>
     </row>
     <row r="4">
@@ -957,13 +957,13 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2550923448620525</v>
+        <v>0.2551069014353365</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03598888185739949</v>
+        <v>0.03599173444385392</v>
       </c>
       <c r="E4" t="n">
-        <v>8.135671851063593</v>
+        <v>8.135650569216335</v>
       </c>
       <c r="F4" t="n">
         <v>1.203266317833868</v>
@@ -977,13 +977,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2874249539410432</v>
+        <v>0.2873097329655001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006469590695879671</v>
+        <v>0.006446064421859118</v>
       </c>
       <c r="E5" t="n">
-        <v>8.257310722504123</v>
+        <v>8.257554985108259</v>
       </c>
       <c r="F5" t="n">
         <v>1.544587854266545</v>
@@ -997,16 +997,16 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5916818242904704</v>
+        <v>0.5916632379019917</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1081540199243083</v>
+        <v>0.1081502143818493</v>
       </c>
       <c r="E6" t="n">
-        <v>7.742143728616862</v>
+        <v>7.742174740444117</v>
       </c>
       <c r="F6" t="n">
-        <v>1.753576434470094</v>
+        <v>1.753576434470093</v>
       </c>
     </row>
     <row r="7">
@@ -1017,13 +1017,13 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>1.103965708690851</v>
+        <v>1.103188020160845</v>
       </c>
       <c r="D7" t="n">
-        <v>0.230933076100517</v>
+        <v>0.2307777624432671</v>
       </c>
       <c r="E7" t="n">
-        <v>6.715268773643097</v>
+        <v>6.716828432052592</v>
       </c>
       <c r="F7" t="n">
         <v>1.905030275417023</v>
@@ -1037,13 +1037,13 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>2.067156527184893</v>
+        <v>2.0682903576147</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4347380961602516</v>
+        <v>0.4349651891280096</v>
       </c>
       <c r="E8" t="n">
-        <v>5.092180512116848</v>
+        <v>5.08991068796782</v>
       </c>
       <c r="F8" t="n">
         <v>2.117987696282954</v>
@@ -1057,16 +1057,16 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>3.69943699325881</v>
+        <v>3.70019517436498</v>
       </c>
       <c r="D9" t="n">
-        <v>0.710745976004952</v>
+        <v>0.7108972930864328</v>
       </c>
       <c r="E9" t="n">
-        <v>2.022813267225277</v>
+        <v>2.021298906788335</v>
       </c>
       <c r="F9" t="n">
-        <v>2.382002930741578</v>
+        <v>2.382002930741576</v>
       </c>
     </row>
     <row r="10">
@@ -1077,13 +1077,13 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>4.597907386762991</v>
+        <v>4.598005668833848</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8873805711897196</v>
+        <v>0.887399864086644</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3016406572169743</v>
+        <v>0.3014441342152854</v>
       </c>
       <c r="F10" t="n">
         <v>2.481177966055681</v>
@@ -1097,13 +1097,13 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>4.597294743254718</v>
+        <v>4.597298158584469</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9146665361180896</v>
+        <v>0.9146672047838852</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04032000705570907</v>
+        <v>0.04031273388604718</v>
       </c>
       <c r="F11" t="n">
         <v>2.742902315026524</v>
@@ -1117,13 +1117,13 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>4.620286921465477</v>
+        <v>4.620266156159457</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9315723649056908</v>
+        <v>0.9315683526876793</v>
       </c>
       <c r="E12" t="n">
-        <v>0.222120614727152</v>
+        <v>0.2221608652776945</v>
       </c>
       <c r="F12" t="n">
         <v>3.021814413812075</v>
@@ -1137,16 +1137,16 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>4.669620912946547</v>
+        <v>4.669586590548414</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9543037836510961</v>
+        <v>0.9542972230896202</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06439390756986663</v>
+        <v>-0.06432483074055254</v>
       </c>
       <c r="F13" t="n">
-        <v>3.06576670969868</v>
+        <v>3.065766709698682</v>
       </c>
     </row>
     <row r="14">
@@ -1157,16 +1157,16 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>4.655353716860337</v>
+        <v>4.655286365696404</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9470489268337141</v>
+        <v>0.9470357010532507</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08848277401397076</v>
+        <v>0.08861641250639687</v>
       </c>
       <c r="F14" t="n">
-        <v>3.402283403147446</v>
+        <v>3.402283403147447</v>
       </c>
     </row>
     <row r="15">
@@ -1177,16 +1177,16 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>4.780754211772516</v>
+        <v>4.780702036148845</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9149790031244207</v>
+        <v>0.9149680739773843</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05334027143213305</v>
+        <v>0.05344642965247905</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530878193249954</v>
+        <v>3.530878193249956</v>
       </c>
     </row>
     <row r="16">
@@ -1197,16 +1197,16 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>4.643032441053015</v>
+        <v>4.64302103758394</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9658167094244023</v>
+        <v>0.9658149414013546</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1554256787885757</v>
+        <v>0.1554457587853318</v>
       </c>
       <c r="F16" t="n">
-        <v>3.908250202336225</v>
+        <v>3.908250202336228</v>
       </c>
     </row>
     <row r="17">
@@ -1217,16 +1217,16 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>4.873661104482274</v>
+        <v>4.873660999990872</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9369361636621925</v>
+        <v>0.9369356863600458</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03797039260758618</v>
+        <v>0.03797361975480473</v>
       </c>
       <c r="F17" t="n">
-        <v>4.000620728363319</v>
+        <v>4.00062072836332</v>
       </c>
     </row>
     <row r="18">
@@ -1237,16 +1237,16 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>4.803697122037443</v>
+        <v>4.803720356108117</v>
       </c>
       <c r="D18" t="n">
-        <v>0.970598821334273</v>
+        <v>0.9706036230160615</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04944270172872675</v>
+        <v>0.04939687909815042</v>
       </c>
       <c r="F18" t="n">
-        <v>4.418769252053679</v>
+        <v>4.418769252053683</v>
       </c>
     </row>
     <row r="19">
@@ -1257,16 +1257,16 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>4.808818501324475</v>
+        <v>4.808838349251412</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9602347923491618</v>
+        <v>0.960238767717926</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1288121113848028</v>
+        <v>0.1287724472331828</v>
       </c>
       <c r="F19" t="n">
-        <v>4.281007639446017</v>
+        <v>4.281007639446024</v>
       </c>
     </row>
     <row r="20">
@@ -1277,16 +1277,16 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>5.003208382539547</v>
+        <v>5.003183122337004</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9350001514315314</v>
+        <v>0.9349942776803819</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1556326595801397</v>
+        <v>0.1556877303402735</v>
       </c>
       <c r="F20" t="n">
-        <v>4.549708535788225</v>
+        <v>4.549708535788231</v>
       </c>
     </row>
     <row r="21">
@@ -1297,16 +1297,16 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>4.93412635397139</v>
+        <v>4.934094632377173</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9381661106383032</v>
+        <v>0.9381591615068354</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03205703749297356</v>
+        <v>0.03212338572787743</v>
       </c>
       <c r="F21" t="n">
-        <v>4.885600090273051</v>
+        <v>4.88560009027306</v>
       </c>
     </row>
   </sheetData>
@@ -1363,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.210894641234992</v>
+        <v>0.2108958657772112</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009426138340100858</v>
+        <v>0.009426236904311219</v>
       </c>
       <c r="E2" t="n">
-        <v>11.34810722540849</v>
+        <v>11.34810707936296</v>
       </c>
       <c r="F2" t="n">
         <v>1.476687193559224</v>
@@ -1383,16 +1383,16 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2449442877902173</v>
+        <v>0.2449420909229335</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.006767207355244411</v>
+        <v>-0.006768065970456105</v>
       </c>
       <c r="E3" t="n">
-        <v>10.89728564211024</v>
+        <v>10.89729223083232</v>
       </c>
       <c r="F3" t="n">
-        <v>1.707609030678664</v>
+        <v>1.707609030678663</v>
       </c>
     </row>
     <row r="4">
@@ -1403,16 +1403,16 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3424367252018778</v>
+        <v>0.342462700101812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05402907682550556</v>
+        <v>0.05403432555059014</v>
       </c>
       <c r="E4" t="n">
-        <v>10.42756448749308</v>
+        <v>10.42750851372077</v>
       </c>
       <c r="F4" t="n">
-        <v>1.808300531851038</v>
+        <v>1.808300531851037</v>
       </c>
     </row>
     <row r="5">
@@ -1423,13 +1423,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6983511929434723</v>
+        <v>0.6982282330004457</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1394422435741477</v>
+        <v>0.1394177506194172</v>
       </c>
       <c r="E5" t="n">
-        <v>9.763664867203362</v>
+        <v>9.76391438895806</v>
       </c>
       <c r="F5" t="n">
         <v>2.044411993782087</v>
@@ -1443,13 +1443,13 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>1.243504911600353</v>
+        <v>1.242459093870613</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2431257127744984</v>
+        <v>0.2429166308252851</v>
       </c>
       <c r="E6" t="n">
-        <v>8.577258306745838</v>
+        <v>8.579347519071318</v>
       </c>
       <c r="F6" t="n">
         <v>2.279012933299579</v>
@@ -1463,13 +1463,13 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>2.367591091143135</v>
+        <v>2.369243266552868</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5253423633511791</v>
+        <v>0.5256734438430943</v>
       </c>
       <c r="E7" t="n">
-        <v>5.925171674505435</v>
+        <v>5.921867120986646</v>
       </c>
       <c r="F7" t="n">
         <v>2.435876557018006</v>
@@ -1483,16 +1483,16 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>4.318414527617783</v>
+        <v>4.318846345049747</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8596211176657413</v>
+        <v>0.8597075420474087</v>
       </c>
       <c r="E8" t="n">
-        <v>2.076246379844719</v>
+        <v>2.07538168241239</v>
       </c>
       <c r="F8" t="n">
-        <v>2.64847628625899</v>
+        <v>2.648476286258991</v>
       </c>
     </row>
     <row r="9">
@@ -1503,16 +1503,16 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28051590996647</v>
+        <v>5.280521996251189</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0727108872894</v>
+        <v>1.072712374185637</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04750344823342888</v>
+        <v>-0.04751590292319965</v>
       </c>
       <c r="F9" t="n">
-        <v>2.838016835298418</v>
+        <v>2.83801683529842</v>
       </c>
     </row>
     <row r="10">
@@ -1523,16 +1523,16 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>5.268054369727757</v>
+        <v>5.268064945414126</v>
       </c>
       <c r="D10" t="n">
-        <v>1.006860599274764</v>
+        <v>1.006862315079597</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.02727675887133775</v>
+        <v>-0.0272982250132142</v>
       </c>
       <c r="F10" t="n">
-        <v>3.085290906612521</v>
+        <v>3.085290906612523</v>
       </c>
     </row>
     <row r="11">
@@ -1543,16 +1543,16 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>5.299248784591412</v>
+        <v>5.299228172794862</v>
       </c>
       <c r="D11" t="n">
-        <v>1.058848269780352</v>
+        <v>1.058844218988137</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1988448463166068</v>
+        <v>0.1988861009993605</v>
       </c>
       <c r="F11" t="n">
-        <v>3.435878517513311</v>
+        <v>3.435878517513312</v>
       </c>
     </row>
     <row r="12">
@@ -1563,16 +1563,16 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>5.274614671276473</v>
+        <v>5.274612832040219</v>
       </c>
       <c r="D12" t="n">
-        <v>1.053838769612615</v>
+        <v>1.05383846304829</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.05094017858874472</v>
+        <v>-0.05093535404951469</v>
       </c>
       <c r="F12" t="n">
-        <v>3.460289485712601</v>
+        <v>3.460289485712602</v>
       </c>
     </row>
     <row r="13">
@@ -1583,13 +1583,13 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>5.066327144114799</v>
+        <v>5.066345228210549</v>
       </c>
       <c r="D13" t="n">
-        <v>1.024920003719237</v>
+        <v>1.024923805989633</v>
       </c>
       <c r="E13" t="n">
-        <v>0.418469989204692</v>
+        <v>0.4184293990898703</v>
       </c>
       <c r="F13" t="n">
         <v>3.675557004597422</v>
@@ -1603,16 +1603,16 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>5.47720451534062</v>
+        <v>5.477172603640819</v>
       </c>
       <c r="D14" t="n">
-        <v>1.04446569999709</v>
+        <v>1.044458845102042</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1939091900599386</v>
+        <v>-0.1938384596982577</v>
       </c>
       <c r="F14" t="n">
-        <v>4.021185650562835</v>
+        <v>4.021185650562836</v>
       </c>
     </row>
     <row r="15">
@@ -1623,16 +1623,16 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>5.107563644885934</v>
+        <v>5.107569440399712</v>
       </c>
       <c r="D15" t="n">
-        <v>1.052525849259699</v>
+        <v>1.052527385240944</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3074672538753071</v>
+        <v>0.3074533399773419</v>
       </c>
       <c r="F15" t="n">
-        <v>4.269802776470783</v>
+        <v>4.269802776470782</v>
       </c>
     </row>
     <row r="16">
@@ -1643,16 +1643,16 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>5.184225341468363</v>
+        <v>5.18420951773814</v>
       </c>
       <c r="D16" t="n">
-        <v>1.027475285861571</v>
+        <v>1.027472071963005</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2035783872853051</v>
+        <v>0.2036100134488024</v>
       </c>
       <c r="F16" t="n">
-        <v>4.448610084176432</v>
+        <v>4.448610084176428</v>
       </c>
     </row>
     <row r="17">
@@ -1663,16 +1663,16 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>5.145978532336077</v>
+        <v>5.145945956151417</v>
       </c>
       <c r="D17" t="n">
-        <v>1.046888447222392</v>
+        <v>1.046882161832336</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1845322763543718</v>
+        <v>0.1845969454131254</v>
       </c>
       <c r="F17" t="n">
-        <v>4.629861503313274</v>
+        <v>4.629861503313271</v>
       </c>
     </row>
     <row r="18">
@@ -1683,16 +1683,16 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>5.240334327972106</v>
+        <v>5.240341641013506</v>
       </c>
       <c r="D18" t="n">
-        <v>1.023553137063038</v>
+        <v>1.023554385706982</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01889397495784959</v>
+        <v>0.01888168330543628</v>
       </c>
       <c r="F18" t="n">
-        <v>4.553287281971151</v>
+        <v>4.553287281971147</v>
       </c>
     </row>
     <row r="19">
@@ -1703,16 +1703,16 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>5.378214256182498</v>
+        <v>5.378169550894838</v>
       </c>
       <c r="D19" t="n">
-        <v>1.02473907486493</v>
+        <v>1.024729642163269</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3164667446343571</v>
+        <v>0.3165604294084815</v>
       </c>
       <c r="F19" t="n">
-        <v>5.10453763565251</v>
+        <v>5.104537635652503</v>
       </c>
     </row>
     <row r="20">
@@ -1723,16 +1723,16 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>5.211249765702406</v>
+        <v>5.211262481632371</v>
       </c>
       <c r="D20" t="n">
-        <v>1.013285469579695</v>
+        <v>1.013287746888805</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07976155530824919</v>
+        <v>0.07973798153238962</v>
       </c>
       <c r="F20" t="n">
-        <v>5.40281329727236</v>
+        <v>5.402813297272354</v>
       </c>
     </row>
     <row r="21">
@@ -1743,16 +1743,16 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>5.30206247018704</v>
+        <v>5.302053146473612</v>
       </c>
       <c r="D21" t="n">
-        <v>1.033335174189455</v>
+        <v>1.033333061848617</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.06302966050816809</v>
+        <v>-0.06300657502923897</v>
       </c>
       <c r="F21" t="n">
-        <v>5.495367188225154</v>
+        <v>5.495367188225149</v>
       </c>
     </row>
   </sheetData>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03629206438614362</v>
+        <v>0.03629161377518032</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.003191901895287486</v>
+        <v>-0.003191833489853615</v>
       </c>
       <c r="E2" t="n">
-        <v>5.432201179620995</v>
+        <v>5.432195604940793</v>
       </c>
       <c r="F2" t="n">
         <v>1.19299486956876</v>
@@ -1829,13 +1829,13 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04219536492895421</v>
+        <v>0.04219731858863428</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02192135234000723</v>
+        <v>0.02192142189004231</v>
       </c>
       <c r="E3" t="n">
-        <v>6.286437618753729</v>
+        <v>6.28647326498943</v>
       </c>
       <c r="F3" t="n">
         <v>1.502859501622929</v>
@@ -1849,13 +1849,13 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01452121396590816</v>
+        <v>-0.01451898563336442</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01651956955152679</v>
+        <v>0.01651954821738506</v>
       </c>
       <c r="E4" t="n">
-        <v>6.48419273831927</v>
+        <v>6.484181435609837</v>
       </c>
       <c r="F4" t="n">
         <v>1.497238315017963</v>
@@ -1869,13 +1869,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05615158801542954</v>
+        <v>0.05614134707773024</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03407528495710768</v>
+        <v>0.03407272072071785</v>
       </c>
       <c r="E5" t="n">
-        <v>6.836395002238422</v>
+        <v>6.836437362091417</v>
       </c>
       <c r="F5" t="n">
         <v>1.78009630957909</v>
@@ -1889,16 +1889,16 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1810593585648383</v>
+        <v>0.1810018075015565</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002090312509889558</v>
+        <v>0.00207948525270869</v>
       </c>
       <c r="E6" t="n">
-        <v>7.119080024463091</v>
+        <v>7.119184027516147</v>
       </c>
       <c r="F6" t="n">
-        <v>2.084962323445354</v>
+        <v>2.084962323445355</v>
       </c>
     </row>
     <row r="7">
@@ -1909,16 +1909,16 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4484874253173847</v>
+        <v>0.4483485023336226</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0619165857142228</v>
+        <v>0.06188936983504947</v>
       </c>
       <c r="E7" t="n">
-        <v>7.013540432878583</v>
+        <v>7.013824888782161</v>
       </c>
       <c r="F7" t="n">
-        <v>2.356194653662131</v>
+        <v>2.356194653662132</v>
       </c>
     </row>
     <row r="8">
@@ -1929,16 +1929,16 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5758359132770352</v>
+        <v>0.575251919370614</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09738796110724413</v>
+        <v>0.09727150661933048</v>
       </c>
       <c r="E8" t="n">
-        <v>6.685108185804783</v>
+        <v>6.686274129782843</v>
       </c>
       <c r="F8" t="n">
-        <v>2.44110538856255</v>
+        <v>2.441105388562551</v>
       </c>
     </row>
     <row r="9">
@@ -1949,16 +1949,16 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>1.263222339352726</v>
+        <v>1.262965655679086</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2512236565795179</v>
+        <v>0.2511723213102075</v>
       </c>
       <c r="E9" t="n">
-        <v>5.891598810966891</v>
+        <v>5.892117447671954</v>
       </c>
       <c r="F9" t="n">
-        <v>2.640753587145438</v>
+        <v>2.640753587145439</v>
       </c>
     </row>
     <row r="10">
@@ -1969,13 +1969,13 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>2.152023247810353</v>
+        <v>2.15163337547977</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4522000852724695</v>
+        <v>0.4521216163877861</v>
       </c>
       <c r="E10" t="n">
-        <v>3.884149733823566</v>
+        <v>3.884930166691131</v>
       </c>
       <c r="F10" t="n">
         <v>2.916916534601913</v>
@@ -1989,13 +1989,13 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>3.688674047595094</v>
+        <v>3.687822261273884</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7206112043412464</v>
+        <v>0.7204411889818393</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9120351471298788</v>
+        <v>0.9137250193043485</v>
       </c>
       <c r="F11" t="n">
         <v>3.127266013486792</v>
@@ -2009,16 +2009,16 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>4.24172505896187</v>
+        <v>4.241738330501613</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8614332610214521</v>
+        <v>0.8614356114233621</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04538528266733907</v>
+        <v>0.0453507727854993</v>
       </c>
       <c r="F12" t="n">
-        <v>3.370524523714843</v>
+        <v>3.370524523714842</v>
       </c>
     </row>
     <row r="13">
@@ -2029,16 +2029,16 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>4.171799010873793</v>
+        <v>4.171786416689121</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8400586237605229</v>
+        <v>0.840055960222608</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1893669439081293</v>
+        <v>0.1893981951030488</v>
       </c>
       <c r="F13" t="n">
-        <v>3.478777250421989</v>
+        <v>3.478777250421991</v>
       </c>
     </row>
     <row r="14">
@@ -2049,16 +2049,16 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>4.251263229008841</v>
+        <v>4.251234120288259</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8315956759403057</v>
+        <v>0.8315902328825574</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2141863793395155</v>
+        <v>0.2142509086915055</v>
       </c>
       <c r="F14" t="n">
-        <v>3.934951877464948</v>
+        <v>3.934951877464951</v>
       </c>
     </row>
     <row r="15">
@@ -2069,16 +2069,16 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>4.347080324841711</v>
+        <v>4.347068342730619</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8395448286206778</v>
+        <v>0.8395430526055455</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05444302847540875</v>
+        <v>0.05446281121013381</v>
       </c>
       <c r="F15" t="n">
-        <v>4.012470588392238</v>
+        <v>4.01247058839224</v>
       </c>
     </row>
     <row r="16">
@@ -2089,16 +2089,16 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>4.393690878660879</v>
+        <v>4.393717612629595</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8616546593963816</v>
+        <v>0.8616603536101083</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07564903699101547</v>
+        <v>0.07559237165885137</v>
       </c>
       <c r="F16" t="n">
-        <v>4.348810398551228</v>
+        <v>4.348810398551231</v>
       </c>
     </row>
     <row r="17">
@@ -2109,16 +2109,16 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>4.244815645325159</v>
+        <v>4.244832896842893</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8524350236687066</v>
+        <v>0.8524383808844113</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03601876819799767</v>
+        <v>0.03598692214785137</v>
       </c>
       <c r="F17" t="n">
-        <v>4.401797459411449</v>
+        <v>4.401797459411447</v>
       </c>
     </row>
     <row r="18">
@@ -2129,13 +2129,13 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>4.385280402711196</v>
+        <v>4.385288130593374</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8659457292604935</v>
+        <v>0.8659474952309651</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01517630045432659</v>
+        <v>0.01515733997892151</v>
       </c>
       <c r="F18" t="n">
         <v>4.501787237922827</v>
@@ -2149,16 +2149,16 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>4.590102021487579</v>
+        <v>4.590128575074893</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8580494491747539</v>
+        <v>0.8580560286970734</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06077535561029139</v>
+        <v>0.060713316073733</v>
       </c>
       <c r="F19" t="n">
-        <v>4.835528059685511</v>
+        <v>4.83552805968551</v>
       </c>
     </row>
     <row r="20">
@@ -2169,16 +2169,16 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>4.447567228870927</v>
+        <v>4.447566560791299</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8920197286951992</v>
+        <v>0.8920195246444942</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07477755966137595</v>
+        <v>0.07477774928550678</v>
       </c>
       <c r="F20" t="n">
-        <v>4.90667051799737</v>
+        <v>4.906670517997369</v>
       </c>
     </row>
     <row r="21">
@@ -2189,16 +2189,16 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>4.510144504327092</v>
+        <v>4.510135978570227</v>
       </c>
       <c r="D21" t="n">
-        <v>0.88310656825659</v>
+        <v>0.8831052525589771</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.00984213588904416</v>
+        <v>-0.009832501282107012</v>
       </c>
       <c r="F21" t="n">
-        <v>5.296510324180425</v>
+        <v>5.296510324180427</v>
       </c>
     </row>
   </sheetData>
